--- a/INTLINE/data/532/HKCSD/Nominal Gross Value Added.xlsx
+++ b/INTLINE/data/532/HKCSD/Nominal Gross Value Added.xlsx
@@ -1,43 +1,204 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HKC" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="HKC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020 r</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Year.1</t>
+  </si>
+  <si>
+    <t>Year.2</t>
+  </si>
+  <si>
+    <t>GDP at current market prices</t>
+  </si>
+  <si>
+    <t>Statistical discrepancy (2)</t>
+  </si>
+  <si>
+    <t>HK$ million</t>
+  </si>
+  <si>
+    <t>(%)</t>
+  </si>
+  <si>
+    <t>Economic Activity</t>
+  </si>
+  <si>
+    <t>Agriculture, fishing, mining and quarrying</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Electricity, gas and water supply, and waste management</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Import/export, wholesale and retail trades</t>
+  </si>
+  <si>
+    <t>Import and export trade</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trades</t>
+  </si>
+  <si>
+    <t>Accommodation and food services (1)</t>
+  </si>
+  <si>
+    <t>Transportation, storage, postal and courier services</t>
+  </si>
+  <si>
+    <t>Transportation and storage</t>
+  </si>
+  <si>
+    <t>Postal and courier services</t>
+  </si>
+  <si>
+    <t>Information and communications</t>
+  </si>
+  <si>
+    <t>Financing and insurance</t>
+  </si>
+  <si>
+    <t>Real estate, professional and business services</t>
+  </si>
+  <si>
+    <t>Real estate</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Public administration, social and personal services</t>
+  </si>
+  <si>
+    <t>Ownership of premises</t>
+  </si>
+  <si>
+    <t>GDP at basic prices</t>
+  </si>
+  <si>
+    <t>Taxes on products</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,31 +207,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -78,14 +226,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -374,1841 +523,1710 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Year.1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Year.2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2020 r</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Economic Activity</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>GDP at current market prices</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>HK$ million</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Agriculture, fishing, mining and quarrying</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
         <v>1168</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1182</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1143</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>945</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>963</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>953</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>947</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1015</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>925</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>1090</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>948</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>944</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>1114</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>1225</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>1496</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>1630</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>1898</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>1736</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>1762</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>2057</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>2648</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:24">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
         <v>61399</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>53575</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>45773</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>39022</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>39468</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>39646</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>39685</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>32365</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>31506</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>28714</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>30410</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>30578</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>30600</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>30156</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>27885</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>26716</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>26844</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>27299</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>27571</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>29366</v>
       </c>
-      <c r="X4" t="n">
-        <v>25140</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Electricity, gas and water supply, and waste management</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="X4">
+        <v>25525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
         <v>37671</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>38758</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>40369</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>39631</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>40538</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>40777</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>41294</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>40747</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>39651</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>35032</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>34486</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>33877</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>35382</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>35119</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>35636</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>34653</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>34414</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>34978</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>35660</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>34083</v>
       </c>
-      <c r="X5" t="n">
-        <v>35155</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Construction</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="X5">
+        <v>35325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
         <v>62532</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>57590</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>51850</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>45237</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>40797</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>39010</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>39227</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>40643</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>48403</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>50264</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>56531</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>65484</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>73445</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>83288</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>96205</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>107902</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>124932</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>129714</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>120473</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>114499</v>
       </c>
-      <c r="X6" t="n">
-        <v>104017</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="X6">
+        <v>104262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
         <v>1120265</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1118884</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1110646</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1102221</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>1163558</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>1257617</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>1352383</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>1490475</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>1499529</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>1466724</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>1614922</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>1770166</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>1872498</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>1948292</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>2044750</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>2154541</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>2229760</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>2357359</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>2514947</v>
       </c>
-      <c r="W7" t="n">
-        <v>2559558</v>
-      </c>
-      <c r="X7" t="n">
-        <v>2397020</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Import/export, wholesale and retail trades</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="W7">
+        <v>2560536</v>
+      </c>
+      <c r="X7">
+        <v>2392333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
         <v>276977</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>281798</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>284349</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>289587</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>320828</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>359732</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>366567</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>379466</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>399200</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>370226</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>413308</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>492900</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>511537</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>523741</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>531541</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>527822</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>525526</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>548636</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>575103</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>533352</v>
       </c>
-      <c r="X8" t="n">
-        <v>473298</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Import and export trade</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="X8">
+        <v>471246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
         <v>234643</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>239075</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>244691</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>252850</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>274545</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>310065</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>313361</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>324571</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>337170</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>309773</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>341615</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>401558</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>410071</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>413445</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>421004</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>420046</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>426865</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>446683</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>465128</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>440363</v>
       </c>
-      <c r="X9" t="n">
-        <v>408477</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Wholesale and retail trades</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="X9">
+        <v>408372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
         <v>42334</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>42723</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>39658</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>36737</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>46283</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>49666</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>53206</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>54895</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>62029</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>60453</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>71693</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>91342</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>101466</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>110296</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>110538</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>107776</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>98661</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>101954</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>109976</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>92989</v>
       </c>
-      <c r="X10" t="n">
-        <v>64822</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>Accommodation and food services (1)</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="X10">
+        <v>62874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
         <v>37843</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>34449</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>30949</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>26505</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>34128</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>37494</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>42701</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>48830</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>53600</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>48789</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>56418</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>66421</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>72044</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>75413</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>78725</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>78134</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>79682</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>83507</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>91525</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>75918</v>
       </c>
-      <c r="X11" t="n">
-        <v>37397</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Transportation, storage, postal and courier services</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="X11">
+        <v>36934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
         <v>97598</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>94027</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>97304</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>95360</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>108693</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>115475</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>116294</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>119862</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>98390</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>99208</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>137941</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>120034</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>120609</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>125465</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>137658</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>150073</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>149742</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>153359</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>158440</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>151574</v>
       </c>
-      <c r="X12" t="n">
-        <v>115122</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>Transportation and storage</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="X12">
+        <v>113951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
         <v>92125</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>89135</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>92541</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>90573</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>103187</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>109763</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>110746</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>114378</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>93325</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>94090</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>132292</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>114705</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>114983</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>119036</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>130525</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>142653</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>141565</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>144666</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>149710</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>142775</v>
       </c>
-      <c r="X13" t="n">
-        <v>104450</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>Postal and courier services</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="X13">
+        <v>103458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
         <v>5473</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>4892</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>4763</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>4787</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>5506</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>5712</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>5548</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>5484</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>5065</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>5118</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>5650</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>5329</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>5626</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>6429</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>7132</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>7420</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>8177</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>8694</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>8730</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>8799</v>
       </c>
-      <c r="X14" t="n">
-        <v>10672</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>Information and communications</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="X14">
+        <v>10493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
         <v>42871</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>44515</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>45811</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>45051</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>42768</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>45779</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>48951</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>51551</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>49127</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>47893</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>55024</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>62952</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>70866</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>76145</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>77761</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>80813</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>84208</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>86891</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>91449</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15">
         <v>95557</v>
       </c>
-      <c r="X15" t="n">
-        <v>93662</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>Financing and insurance</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+      <c r="X15">
+        <v>93759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
         <v>164195</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>153787</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>154099</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>163267</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>168278</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>189741</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>245954</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>322644</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>277112</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>255900</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>283752</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>305282</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>319312</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>346248</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>367989</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>409933</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>428903</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>480488</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>535126</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16">
         <v>581319</v>
       </c>
-      <c r="X16" t="n">
-        <v>597994</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>Real estate, professional and business services</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+      <c r="X16">
+        <v>599539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
         <v>118248</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>111431</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>106137</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>103309</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>113633</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>122336</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>128685</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>147339</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>166086</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>173903</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>188476</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>213987</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>232416</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>225789</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>239434</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>252714</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>266139</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>274822</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>280843</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17">
         <v>276497</v>
       </c>
-      <c r="X17" t="n">
-        <v>244955</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>Real estate</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+      <c r="X17">
+        <v>244337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
         <v>64438</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>57969</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>53394</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>48926</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>52956</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>61220</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>63464</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>71999</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>84903</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>86862</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>88919</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>106035</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>116880</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>105456</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>110114</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>115519</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>123087</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>126979</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>125077</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18">
         <v>122177</v>
       </c>
-      <c r="X18" t="n">
-        <v>108664</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>Professional and business services</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="X18">
+        <v>107896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
         <v>53810</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>53462</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>52743</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>54383</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>60677</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>61116</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>65221</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>75341</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>81183</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>87041</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>99558</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>107952</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>115536</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>120332</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>129320</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>137195</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>143052</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>147843</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>155766</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19">
         <v>154320</v>
       </c>
-      <c r="X19" t="n">
-        <v>136291</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>Public administration, social and personal services</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="X19">
+        <v>136440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20">
         <v>243423</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>255543</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>252581</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>247694</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>249018</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>247942</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>251211</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>262395</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>278100</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>288109</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>295257</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>313585</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>337678</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>356326</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>379588</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>407405</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20">
         <v>436912</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20">
         <v>465488</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>499433</v>
       </c>
-      <c r="W20" t="n">
-        <v>536259</v>
-      </c>
-      <c r="X20" t="n">
-        <v>531218</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Ownership of premises</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+      <c r="W20">
+        <v>537238</v>
+      </c>
+      <c r="X20">
+        <v>529153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21">
         <v>139111</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>143334</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>139416</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>131450</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>126212</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>139118</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>152019</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>158388</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>177915</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>182696</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>184745</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>195005</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>208036</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>219166</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>232053</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21">
         <v>247648</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21">
         <v>258649</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21">
         <v>264166</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21">
         <v>283028</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21">
         <v>309081</v>
       </c>
-      <c r="X21" t="n">
-        <v>303373</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>GDP at basic prices</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+      <c r="X21">
+        <v>303414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22">
         <v>1283035</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>1269989</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>1249781</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>1227056</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>1285324</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>1378002</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>1473535</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>1605245</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>1620013</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>1581824</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>1737298</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>1901049</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22">
         <v>2013038</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22">
         <v>2098080</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>2205972</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22">
         <v>2325443</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22">
         <v>2417849</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22">
         <v>2551086</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V22">
         <v>2700413</v>
       </c>
-      <c r="W22" t="n">
-        <v>2739563</v>
-      </c>
-      <c r="X22" t="n">
-        <v>2563979</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>Taxes on products</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+      <c r="W22">
+        <v>2740541</v>
+      </c>
+      <c r="X22">
+        <v>2560093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23">
         <v>31231</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>26433</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>24406</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>25428</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>33296</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>35305</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>40348</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>64634</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>58233</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>54689</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>68707</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>69401</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23">
         <v>63575</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>75314</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>83236</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23">
         <v>95433</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23">
         <v>83743</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23">
         <v>110698</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V23">
         <v>117825</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W23">
         <v>93623</v>
       </c>
-      <c r="X23" t="n">
-        <v>103627</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>GDP at current market prices</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+      <c r="X23">
+        <v>102066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
         <v>1337501</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>1321142</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>1297341</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>1256669</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>1316949</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>1412125</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>1503351</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>1650756</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>1707487</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>1659245</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>1776332</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>1934430</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24">
         <v>2037059</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24">
         <v>2138305</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24">
         <v>2260005</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24">
         <v>2398280</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T24">
         <v>2490598</v>
       </c>
-      <c r="U24" t="n">
+      <c r="U24">
         <v>2659611</v>
       </c>
-      <c r="V24" t="n">
+      <c r="V24">
         <v>2835429</v>
       </c>
-      <c r="W24" t="n">
+      <c r="W24">
         <v>2844843</v>
       </c>
-      <c r="X24" t="n">
-        <v>2675314</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Statistical discrepancy (2)</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>(%)</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+      <c r="X24">
+        <v>2675708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25">
         <v>1.7</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>1.9</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>1.8</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>0.3</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>-0.1</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>-0.1</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>-0.7</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>-1.2</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>1.7</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>1.4</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>-1.7</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>-1.9</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25">
         <v>-1.9</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25">
         <v>-1.6</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>-1.3</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25">
         <v>-0.9</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T25">
         <v>-0.4</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U25">
         <v>-0.1</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V25">
         <v>0.6</v>
       </c>
-      <c r="W25" t="n">
+      <c r="W25">
         <v>0.4</v>
       </c>
-      <c r="X25" t="n">
-        <v>0.3</v>
+      <c r="X25">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2216,6 +2234,6 @@
     <mergeCell ref="A3:A24"/>
     <mergeCell ref="B3:B24"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/532/HKCSD/Nominal Gross Value Added.xlsx
+++ b/INTLINE/data/532/HKCSD/Nominal Gross Value Added.xlsx
@@ -1,204 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="HKC" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HKC" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020 r</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Year.1</t>
-  </si>
-  <si>
-    <t>Year.2</t>
-  </si>
-  <si>
-    <t>GDP at current market prices</t>
-  </si>
-  <si>
-    <t>Statistical discrepancy (2)</t>
-  </si>
-  <si>
-    <t>HK$ million</t>
-  </si>
-  <si>
-    <t>(%)</t>
-  </si>
-  <si>
-    <t>Economic Activity</t>
-  </si>
-  <si>
-    <t>Agriculture, fishing, mining and quarrying</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Electricity, gas and water supply, and waste management</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Import/export, wholesale and retail trades</t>
-  </si>
-  <si>
-    <t>Import and export trade</t>
-  </si>
-  <si>
-    <t>Wholesale and retail trades</t>
-  </si>
-  <si>
-    <t>Accommodation and food services (1)</t>
-  </si>
-  <si>
-    <t>Transportation, storage, postal and courier services</t>
-  </si>
-  <si>
-    <t>Transportation and storage</t>
-  </si>
-  <si>
-    <t>Postal and courier services</t>
-  </si>
-  <si>
-    <t>Information and communications</t>
-  </si>
-  <si>
-    <t>Financing and insurance</t>
-  </si>
-  <si>
-    <t>Real estate, professional and business services</t>
-  </si>
-  <si>
-    <t>Real estate</t>
-  </si>
-  <si>
-    <t>Professional and business services</t>
-  </si>
-  <si>
-    <t>Public administration, social and personal services</t>
-  </si>
-  <si>
-    <t>Ownership of premises</t>
-  </si>
-  <si>
-    <t>GDP at basic prices</t>
-  </si>
-  <si>
-    <t>Taxes on products</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -207,18 +46,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -226,15 +78,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -523,1709 +374,1840 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Year.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2020 r</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Economic Activity</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>GDP at current market prices</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>HK$ million</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Agriculture, fishing, mining and quarrying</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>1168</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>1182</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>1143</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>945</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>963</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>953</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>947</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>1015</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>925</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>1090</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>948</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>944</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>1114</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>1225</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>1496</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>1630</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>1898</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>1736</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>1762</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>2057</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>2648</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4">
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>61399</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>53575</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>45773</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>39022</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>39468</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>39646</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>39685</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>32365</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>31506</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>28714</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>30410</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>30578</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>30600</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>30156</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>27885</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>26716</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>26844</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>27299</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>27571</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>29366</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>25525</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5">
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Electricity, gas and water supply, and waste management</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>37671</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>38758</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>40369</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>39631</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>40538</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>40777</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>41294</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>40747</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>39651</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>35032</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>34486</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>33877</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>35382</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>35119</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>35636</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>34653</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>34414</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>34978</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>35660</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>34083</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>35325</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>62532</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>57590</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>51850</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>45237</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>40797</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>39010</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>39227</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>40643</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>48403</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>50264</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>56531</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>65484</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>73445</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>83288</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>96205</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>107902</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>124932</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>129714</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>120473</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>114499</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>104262</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7">
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>1120265</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>1118884</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>1110646</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>1102221</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>1163558</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>1257617</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>1352383</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>1490475</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>1499529</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>1466724</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>1614922</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>1770166</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>1872498</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>1948292</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>2044750</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>2154541</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>2229760</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>2357359</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>2514947</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>2560536</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>2392333</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8">
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>Import/export, wholesale and retail trades</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>276977</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>281798</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>284349</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>289587</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>320828</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>359732</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>366567</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>379466</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>399200</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>370226</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>413308</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>492900</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>511537</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>523741</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>531541</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>527822</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>525526</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>548636</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>575103</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>533352</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>471246</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9">
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Import and export trade</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>234643</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>239075</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>244691</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>252850</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>274545</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>310065</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>313361</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>324571</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>337170</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>309773</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>341615</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>401558</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>410071</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>413445</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>421004</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>420046</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>426865</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>446683</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>465128</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>440363</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>408372</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10">
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Wholesale and retail trades</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>42334</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>42723</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>39658</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>36737</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>46283</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>49666</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>53206</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>54895</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>62029</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>60453</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>71693</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>91342</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>101466</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>110296</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>110538</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>107776</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>98661</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>101954</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>109976</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>92989</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>62874</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11">
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Accommodation and food services (1)</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>37843</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>34449</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>30949</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>26505</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>34128</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>37494</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>42701</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>48830</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>53600</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>48789</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>56418</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>66421</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>72044</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>75413</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>78725</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>78134</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>79682</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>83507</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>91525</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>75918</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>36934</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12">
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Transportation, storage, postal and courier services</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>97598</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>94027</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>97304</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>95360</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>108693</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>115475</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>116294</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>119862</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>98390</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>99208</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>137941</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>120034</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>120609</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>125465</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>137658</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>150073</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>149742</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>153359</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>158440</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>151574</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>113951</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13">
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Transportation and storage</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>92125</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>89135</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>92541</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>90573</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>103187</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>109763</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>110746</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>114378</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>93325</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>94090</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>132292</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>114705</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>114983</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>119036</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>130525</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>142653</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>141565</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>144666</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>149710</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>142775</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>103458</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14">
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Postal and courier services</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>5473</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>4892</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>4763</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>4787</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>5506</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>5712</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>5548</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>5484</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>5065</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>5118</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>5650</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>5329</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>5626</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>6429</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>7132</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>7420</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>8177</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>8694</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>8730</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>8799</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>10493</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15">
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Information and communications</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>42871</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>44515</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>45811</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>45051</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>42768</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>45779</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>48951</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>51551</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>49127</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>47893</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>55024</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>62952</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>70866</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>76145</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>77761</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>80813</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>84208</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>86891</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>91449</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>95557</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>93759</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16">
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Financing and insurance</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>164195</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>153787</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>154099</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>163267</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>168278</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>189741</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>245954</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>322644</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>277112</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>255900</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>283752</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>305282</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>319312</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>346248</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>367989</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>409933</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>428903</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>480488</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>535126</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>581319</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>599539</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17">
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>Real estate, professional and business services</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>118248</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>111431</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>106137</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>103309</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>113633</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>122336</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>128685</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>147339</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>166086</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>173903</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>188476</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>213987</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>232416</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>225789</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>239434</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>252714</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>266139</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>274822</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>280843</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>276497</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>244337</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18">
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Real estate</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>64438</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>57969</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>53394</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>48926</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>52956</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>61220</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>63464</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>71999</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>84903</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>86862</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>88919</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>106035</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>116880</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>105456</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>110114</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="n">
         <v>115519</v>
       </c>
-      <c r="T18">
+      <c r="T18" t="n">
         <v>123087</v>
       </c>
-      <c r="U18">
+      <c r="U18" t="n">
         <v>126979</v>
       </c>
-      <c r="V18">
+      <c r="V18" t="n">
         <v>125077</v>
       </c>
-      <c r="W18">
+      <c r="W18" t="n">
         <v>122177</v>
       </c>
-      <c r="X18">
+      <c r="X18" t="n">
         <v>107896</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19">
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>Professional and business services</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>53810</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>53462</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>52743</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>54383</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>60677</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>61116</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>65221</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>75341</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>81183</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>87041</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>99558</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>107952</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>115536</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>120332</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>129320</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>137195</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>143052</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>147843</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="n">
         <v>155766</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>154320</v>
       </c>
-      <c r="X19">
+      <c r="X19" t="n">
         <v>136440</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20">
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Public administration, social and personal services</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>243423</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>255543</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>252581</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>247694</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>249018</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>247942</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>251211</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>262395</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>278100</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>288109</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>295257</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="n">
         <v>313585</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>337678</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>356326</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="n">
         <v>379588</v>
       </c>
-      <c r="S20">
+      <c r="S20" t="n">
         <v>407405</v>
       </c>
-      <c r="T20">
+      <c r="T20" t="n">
         <v>436912</v>
       </c>
-      <c r="U20">
+      <c r="U20" t="n">
         <v>465488</v>
       </c>
-      <c r="V20">
+      <c r="V20" t="n">
         <v>499433</v>
       </c>
-      <c r="W20">
+      <c r="W20" t="n">
         <v>537238</v>
       </c>
-      <c r="X20">
+      <c r="X20" t="n">
         <v>529153</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21">
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>Ownership of premises</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>139111</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>143334</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>139416</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>131450</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>126212</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>139118</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>152019</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>158388</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>177915</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>182696</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>184745</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="n">
         <v>195005</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="n">
         <v>208036</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>219166</v>
       </c>
-      <c r="R21">
+      <c r="R21" t="n">
         <v>232053</v>
       </c>
-      <c r="S21">
+      <c r="S21" t="n">
         <v>247648</v>
       </c>
-      <c r="T21">
+      <c r="T21" t="n">
         <v>258649</v>
       </c>
-      <c r="U21">
+      <c r="U21" t="n">
         <v>264166</v>
       </c>
-      <c r="V21">
+      <c r="V21" t="n">
         <v>283028</v>
       </c>
-      <c r="W21">
+      <c r="W21" t="n">
         <v>309081</v>
       </c>
-      <c r="X21">
+      <c r="X21" t="n">
         <v>303414</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22">
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>GDP at basic prices</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>1283035</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>1269989</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>1249781</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>1227056</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>1285324</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>1378002</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>1473535</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>1605245</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>1620013</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>1581824</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="n">
         <v>1737298</v>
       </c>
-      <c r="O22">
+      <c r="O22" t="n">
         <v>1901049</v>
       </c>
-      <c r="P22">
+      <c r="P22" t="n">
         <v>2013038</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="n">
         <v>2098080</v>
       </c>
-      <c r="R22">
+      <c r="R22" t="n">
         <v>2205972</v>
       </c>
-      <c r="S22">
+      <c r="S22" t="n">
         <v>2325443</v>
       </c>
-      <c r="T22">
+      <c r="T22" t="n">
         <v>2417849</v>
       </c>
-      <c r="U22">
+      <c r="U22" t="n">
         <v>2551086</v>
       </c>
-      <c r="V22">
+      <c r="V22" t="n">
         <v>2700413</v>
       </c>
-      <c r="W22">
+      <c r="W22" t="n">
         <v>2740541</v>
       </c>
-      <c r="X22">
+      <c r="X22" t="n">
         <v>2560093</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23">
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Taxes on products</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>31231</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>26433</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>24406</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>25428</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>33296</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>35305</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>40348</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>64634</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>58233</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>54689</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="n">
         <v>68707</v>
       </c>
-      <c r="O23">
+      <c r="O23" t="n">
         <v>69401</v>
       </c>
-      <c r="P23">
+      <c r="P23" t="n">
         <v>63575</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="n">
         <v>75314</v>
       </c>
-      <c r="R23">
+      <c r="R23" t="n">
         <v>83236</v>
       </c>
-      <c r="S23">
+      <c r="S23" t="n">
         <v>95433</v>
       </c>
-      <c r="T23">
+      <c r="T23" t="n">
         <v>83743</v>
       </c>
-      <c r="U23">
+      <c r="U23" t="n">
         <v>110698</v>
       </c>
-      <c r="V23">
+      <c r="V23" t="n">
         <v>117825</v>
       </c>
-      <c r="W23">
+      <c r="W23" t="n">
         <v>93623</v>
       </c>
-      <c r="X23">
+      <c r="X23" t="n">
         <v>102066</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24">
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>GDP at current market prices</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>1337501</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>1321142</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>1297341</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>1256669</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>1316949</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>1412125</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>1503351</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>1650756</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>1707487</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>1659245</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="n">
         <v>1776332</v>
       </c>
-      <c r="O24">
+      <c r="O24" t="n">
         <v>1934430</v>
       </c>
-      <c r="P24">
+      <c r="P24" t="n">
         <v>2037059</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="n">
         <v>2138305</v>
       </c>
-      <c r="R24">
+      <c r="R24" t="n">
         <v>2260005</v>
       </c>
-      <c r="S24">
+      <c r="S24" t="n">
         <v>2398280</v>
       </c>
-      <c r="T24">
+      <c r="T24" t="n">
         <v>2490598</v>
       </c>
-      <c r="U24">
+      <c r="U24" t="n">
         <v>2659611</v>
       </c>
-      <c r="V24">
+      <c r="V24" t="n">
         <v>2835429</v>
       </c>
-      <c r="W24">
+      <c r="W24" t="n">
         <v>2844843</v>
       </c>
-      <c r="X24">
+      <c r="X24" t="n">
         <v>2675708</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Statistical discrepancy (2)</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>(%)</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>1.7</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>1.9</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>1.8</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>0.3</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>-0.1</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>-0.1</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>-0.7</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>-1.2</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>1.7</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>1.4</v>
       </c>
-      <c r="N25">
+      <c r="N25" t="n">
         <v>-1.7</v>
       </c>
-      <c r="O25">
+      <c r="O25" t="n">
         <v>-1.9</v>
       </c>
-      <c r="P25">
+      <c r="P25" t="n">
         <v>-1.9</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="n">
         <v>-1.6</v>
       </c>
-      <c r="R25">
+      <c r="R25" t="n">
         <v>-1.3</v>
       </c>
-      <c r="S25">
+      <c r="S25" t="n">
         <v>-0.9</v>
       </c>
-      <c r="T25">
+      <c r="T25" t="n">
         <v>-0.4</v>
       </c>
-      <c r="U25">
+      <c r="U25" t="n">
         <v>-0.1</v>
       </c>
-      <c r="V25">
+      <c r="V25" t="n">
         <v>0.6</v>
       </c>
-      <c r="W25">
+      <c r="W25" t="n">
         <v>0.4</v>
       </c>
-      <c r="X25">
+      <c r="X25" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2234,6 +2216,6 @@
     <mergeCell ref="A3:A24"/>
     <mergeCell ref="B3:B24"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>